--- a/data/financial_statements/sofp/KEY.xlsx
+++ b/data/financial_statements/sofp/KEY.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,2234 +584,2285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>4148000000</v>
+      </c>
+      <c r="C2">
         <v>6681000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3943000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5413000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>12624000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>21273000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>22103000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>17125000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>18020000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>15837000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>15740000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5733000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3044000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>4950000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>4055000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>4101000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>4089000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3549000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>4263000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>3056000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>5954000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>5338000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>4204000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>3995000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>4319000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>4891000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>8060000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>6675000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>4102000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>3245000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>4589000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>4673000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>5672000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>3958000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>4670000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>4171000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>6945000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>5089000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>4870000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>4403000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>132391000000</v>
+      </c>
+      <c r="C3">
         <v>132311000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>127069000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>121622000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>124411000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>129007000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>131116000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>126256000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>125974000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>125996000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>129174000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>116319000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>103618000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>104296000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>102525000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>99886000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>99015000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>97926000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>97398000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>96147000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>96826000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>96035000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>95727000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>94698000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>94467000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>94171000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>72419000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>69820000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>67111000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>66802000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>66204000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>66623000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>65945000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>63117000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>62981000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>62187000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>64180000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>61264000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>60361000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>59402000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>636000000</v>
+      </c>
+      <c r="C4">
         <v>629000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>638000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>647000000</v>
       </c>
-      <c r="E4">
-        <v>1276000000</v>
-      </c>
       <c r="F4">
+        <v>681000000</v>
+      </c>
+      <c r="G4">
         <v>678000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>785000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>737000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>753000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>765000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>776000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>791000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>814000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>815000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>829000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>849000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>882000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>891000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>892000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>916000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>930000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>916000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>919000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>935000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>978000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1023000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>742000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>750000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>779000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>771000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>788000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>806000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>841000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>832000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>844000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>862000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>885000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>890000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>900000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>930000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>49135000000</v>
+      </c>
+      <c r="C5">
         <v>49435000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>51592000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>51274000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>53542000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>49624000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>41448000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>41401000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>35772000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>35899000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>33330000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>31124000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>32515000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>33488000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>33038000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>32734000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>31613000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>30891000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>30353000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>30792000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>30695000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>30016000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>29394000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>29306000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>31182000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>30282000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>19961000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>19950000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>19770000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>20003000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>19969000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>18855000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>19135000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>18064000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>18356000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>18084000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>18071000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>18448000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>19040000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>18276000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>2846000000</v>
+      </c>
+      <c r="C6">
         <v>2858000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2870000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2812000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2823000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2817000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2832000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2846000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2852000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2867000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2882000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2900000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2917000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2936000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2962000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2816000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2832000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>2854000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>2877000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>2925000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>2954000000</v>
-      </c>
-      <c r="V6">
-        <v>2899000000</v>
       </c>
       <c r="W6">
         <v>2899000000</v>
       </c>
       <c r="X6">
+        <v>2899000000</v>
+      </c>
+      <c r="Y6">
         <v>2789000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>2830000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>2906000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>1110000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>1117000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>1125000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>1134000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>1140000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>1149000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>1158000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>1177000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>1087000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>1096000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>1106000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>1116000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>1128000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>1138000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>10578000000</v>
+        <v>4369000000</v>
       </c>
       <c r="C7">
-        <v>11179000000</v>
+        <v>4351000000</v>
       </c>
       <c r="D7">
-        <v>13405000000</v>
+        <v>4343000000</v>
       </c>
       <c r="E7">
-        <v>10798000000</v>
+        <v>4340000000</v>
       </c>
       <c r="F7">
-        <v>10501000000</v>
+        <v>4327000000</v>
       </c>
       <c r="G7">
+        <v>4312000000</v>
+      </c>
+      <c r="H7">
         <v>4304000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4296000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4286000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>4274000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>4251000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>4243000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>4233000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>4216000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>4201000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>4184000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>4171000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>5086000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>5050000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>4980000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>4953000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>5471000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>5427000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>5228000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>5411000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>5769000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>5201000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>4984000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>4500000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>4624000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>4334000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>4525000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>4418000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>4173000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>4293000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>4146000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>4120000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>4152000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>4126000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>4270000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>57422000000</v>
+      </c>
+      <c r="C8">
         <v>57740000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>59939000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>59599000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>61935000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>58028000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>49999000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>49947000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>44362000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>44544000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>42018000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>39878000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>41370000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>42395000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>42020000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>41629000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>40598000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>40879000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>40394000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>40902000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>40872000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>40698000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>40097000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>39778000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>41986000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>41634000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>28731000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>28582000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>28020000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>28618000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>28400000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>27581000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>27876000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>26667000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>28817000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>28615000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>28754000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>29444000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>30278000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>29796000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>189813000000</v>
+      </c>
+      <c r="C9">
         <v>190051000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>187008000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>181221000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>186346000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>187035000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>181115000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>176203000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>170336000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>170540000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>171192000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>156197000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>144988000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>146691000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>144545000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>141515000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>139613000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>138805000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>137792000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>137049000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>137698000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>136733000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>135824000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>134476000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>136453000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>135805000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>101150000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>98402000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>95131000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>95420000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>94604000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>94204000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>93821000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>89784000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>91798000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>90802000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>92934000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>90708000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>90639000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>89198000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>9463000000</v>
+      </c>
+      <c r="C10">
         <v>8800000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>6043000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>2821000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>761000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>995000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>934000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1025000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>979000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1031000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1983000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>7050000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1092000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>882000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>881000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>945000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>863000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1922000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>2306000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1749000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>1011000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>988000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>2704000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1385000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>2310000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>1411000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>1047000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>989000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>905000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>1084000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>972000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>1125000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>998000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>1653000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>1734000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>1881000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>1877000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>1921000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>1945000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>2328000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>142595000000</v>
+      </c>
+      <c r="C11">
         <v>144855000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>145865000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>148663000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>152572000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>151931000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>146072000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>142183000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>135282000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>136746000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>135513000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>115304000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>111870000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>111649000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>109946000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>108175000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>107309000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>105780000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>104548000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>104751000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>105235000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>103446000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>102821000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>103982000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>104087000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>104185000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>75325000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>73382000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>71046000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>71073000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>70669000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>71622000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>71998000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>68456000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>67799000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>67266000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>69262000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>68535000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>67721000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>64654000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>4994000000</v>
+      </c>
+      <c r="C12">
         <v>4849000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>4056000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>3615000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>3548000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3434000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2957000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2862000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2385000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>2356000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2420000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2700000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2540000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2574000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2435000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>2301000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>2113000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>2044000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1983000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1854000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>2094000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1717000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>1475000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>1552000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>1796000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>1739000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>1326000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>1410000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>1605000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>1562000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>1537000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1308000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>1621000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>1613000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>1400000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>1297000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>1557000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>1375000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>1421000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>1352000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>8814000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>6059000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>2836000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3719000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1009000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>946000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1036000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>5392000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1040000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1991000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>7057000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2244000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>157052000000</v>
+      </c>
+      <c r="C14">
         <v>158504000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>155964000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>155099000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>156881000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>156360000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>149963000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>146070000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>138646000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>140133000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>139916000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>125054000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>115502000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>115105000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>113262000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>111421000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>110285000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>109746000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>108837000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>108354000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>108340000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>106151000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>107000000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>106919000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>108193000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>107335000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>77698000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>75781000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>73556000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>73719000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>73178000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>74055000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>74617000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>71722000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>70933000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>70444000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>72696000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>71831000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>71087000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>68334000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>19307000000</v>
+      </c>
+      <c r="C15">
         <v>18257000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>16617000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>10814000000</v>
       </c>
-      <c r="E15">
-        <v>9760000000</v>
-      </c>
       <c r="F15">
+        <v>12042000000</v>
+      </c>
+      <c r="G15">
         <v>13165000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>13211000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>12499000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>13709000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>12685000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>13734000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>13732000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>12448000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>14470000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>14312000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>14168000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>13732000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>13849000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>13853000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>13749000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>14333000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>15100000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>13261000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>12324000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>12384000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>12622000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>11388000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>10760000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>10184000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>10308000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>10265000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>8711000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>7875000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>7172000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>8213000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>7712000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>7650000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>6154000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>6666000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>7785000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>4835000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>4040000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>3600000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2872000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3420000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2833000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2840000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1574000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2237000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2235000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2420000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>733000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>232000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>308000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>255000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>636000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>850000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>746000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>790000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>632000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>676000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>560000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>825000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>784000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>384000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>451000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>408000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>414000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>450000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>456000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>524000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>19307000000</v>
+      </c>
+      <c r="C17">
         <v>18257000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>16617000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>10814000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>12042000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>13165000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>13211000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>12499000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>13709000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>12685000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>13734000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>13732000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>12448000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>14470000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>14312000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>14168000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>13732000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>13849000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>13853000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>13749000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>14333000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>15332000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>13569000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>12579000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>13020000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>13472000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>12134000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>11550000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>10816000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>10984000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>10825000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>9536000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>8662000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>7559000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>10344000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>9939000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>9918000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>8641000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>9291000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>10485000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>176359000000</v>
+      </c>
+      <c r="C18">
         <v>176761000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>172581000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>165913000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>168923000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>169525000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>163174000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>158569000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>152355000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>152818000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>153650000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>138786000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>127950000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>129575000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>127574000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>125589000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>124017000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>123595000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>122690000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>122103000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>122673000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>121483000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>120569000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>119498000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>121213000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>120807000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>89832000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>87331000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>84372000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>84703000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>84003000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>83591000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>83279000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>79281000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>81277000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>80383000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>82614000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>80472000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>80378000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>78819000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>6286000000</v>
+      </c>
+      <c r="C19">
         <v>6257000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>6241000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>6214000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>6278000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>6141000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>6232000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>6213000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>6281000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>6263000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>6240000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>6222000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>6295000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>6287000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>6266000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>6259000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>6331000000</v>
-      </c>
-      <c r="R19">
-        <v>6315000000</v>
       </c>
       <c r="S19">
         <v>6315000000</v>
       </c>
       <c r="T19">
+        <v>6315000000</v>
+      </c>
+      <c r="U19">
         <v>6289000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>6335000000</v>
-      </c>
-      <c r="V19">
-        <v>6310000000</v>
       </c>
       <c r="W19">
         <v>6310000000</v>
       </c>
       <c r="X19">
+        <v>6310000000</v>
+      </c>
+      <c r="Y19">
         <v>6287000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>6385000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>6359000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>3835000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>3818000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>3922000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>3914000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>3898000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>3910000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>3986000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>3984000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>3987000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>3961000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>4022000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>4029000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>4045000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>4059000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>2500000000</v>
       </c>
       <c r="C20">
-        <v>1900000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D20">
         <v>1900000000</v>
@@ -2736,7 +2901,7 @@
         <v>1900000000</v>
       </c>
       <c r="P20">
-        <v>1450000000</v>
+        <v>1900000000</v>
       </c>
       <c r="Q20">
         <v>1450000000</v>
@@ -2745,7 +2910,7 @@
         <v>1450000000</v>
       </c>
       <c r="S20">
-        <v>1025000000</v>
+        <v>1450000000</v>
       </c>
       <c r="T20">
         <v>1025000000</v>
@@ -2763,13 +2928,13 @@
         <v>1025000000</v>
       </c>
       <c r="Y20">
+        <v>1025000000</v>
+      </c>
+      <c r="Z20">
         <v>1665000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>1165000000</v>
-      </c>
-      <c r="AA20">
-        <v>290000000</v>
       </c>
       <c r="AB20">
         <v>290000000</v>
@@ -2787,7 +2952,7 @@
         <v>290000000</v>
       </c>
       <c r="AG20">
-        <v>291000000</v>
+        <v>290000000</v>
       </c>
       <c r="AH20">
         <v>291000000</v>
@@ -2810,10 +2975,13 @@
       <c r="AN20">
         <v>291000000</v>
       </c>
+      <c r="AO20">
+        <v>291000000</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>1257000000</v>
@@ -2891,7 +3059,7 @@
         <v>1257000000</v>
       </c>
       <c r="AA21">
-        <v>1017000000</v>
+        <v>1257000000</v>
       </c>
       <c r="AB21">
         <v>1017000000</v>
@@ -2932,757 +3100,775 @@
       <c r="AN21">
         <v>1017000000</v>
       </c>
+      <c r="AO21">
+        <v>1017000000</v>
+      </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>15616000000</v>
+      </c>
+      <c r="C22">
         <v>15450000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>15118000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>14793000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>14553000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>14133000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>13689000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>13166000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>12751000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>12375000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>12154000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>12174000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>12469000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>12209000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>12005000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>11771000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>11556000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>11262000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>10970000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>10624000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>10335000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>10125000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>9878000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>9584000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>9378000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>9260000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>9166000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>9042000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>8922000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>8764000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>8614000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>8445000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>8273000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>8082000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>7950000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>7793000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>7606000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>7431000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>7214000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>7065000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>5910000000</v>
+      </c>
+      <c r="C23">
         <v>5917000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>5923000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>5927000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>5979000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>5876000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>5287000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>5005000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>4946000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>4940000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>4945000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>4956000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>4909000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>4696000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>4457000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>4283000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>4181000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>3910000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>3382000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>3260000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>3150000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>2962000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>2711000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>2623000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>2904000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>2863000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>2881000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>2888000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>3000000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>3008000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>2884000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>2780000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>2681000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>2563000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>2452000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>2335000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>2281000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>2193000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>2020000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>1930000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>10954000000</v>
+      </c>
+      <c r="C24">
         <v>10790000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>12527000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>13408000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>15523000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>15610000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>16041000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>15734000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>16081000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>15822000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>15642000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>15511000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>15138000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>15216000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>15071000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>14476000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>14146000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>13760000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>14077000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>13921000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>14000000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>14225000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>14230000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>13953000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>13575000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>13833000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>11028000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>10781000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>10469000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>10427000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>10311000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>10323000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>10251000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>10212000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>10230000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>10128000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>10029000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>9945000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>9970000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>10088000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>13454000000</v>
+      </c>
+      <c r="C25">
         <v>13290000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>14427000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>15308000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>17423000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>17510000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>17941000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>17634000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>17981000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>17722000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>17542000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>17411000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>17038000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>17116000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>16971000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>15926000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>15596000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>15210000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>15102000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>14946000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>15025000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>15250000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>15255000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>14978000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>15240000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>14998000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>11318000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>11071000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>10759000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>10717000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>10601000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>10613000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>10542000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>10503000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>10521000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>10419000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>10320000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>10236000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>10261000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>10379000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>189813000000</v>
+      </c>
+      <c r="C26">
         <v>190051000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>187008000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>181221000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>186346000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>187035000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>181115000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>176203000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>170336000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>170540000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>171192000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>156197000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>144988000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>146691000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>144545000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>141515000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>139613000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>138805000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>137792000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>137049000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>137698000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>136733000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>135824000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>134476000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>136453000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>135805000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>101150000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>98402000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>95131000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>95420000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>94604000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>94204000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>93821000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>89784000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>91798000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>90802000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>92934000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>90708000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>90639000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>89198000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>933325000</v>
+      </c>
+      <c r="C27">
         <v>932938000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>932643000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>932398000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>928850000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>930544000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>960276000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>972587000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>975773000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>976204000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>975947000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>975319000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>977189000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>988538000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1003114000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1013186000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1019503000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1034287000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1058944000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1064939000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>1069084000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1079039000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>1092739000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>1097479000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>1079314000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>1082055000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>842703000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>842290000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>835751000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>835285000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>843608000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>850920000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>859403000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>868477000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>876823000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>884869000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>890724000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>897821000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>912883000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>922581000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>1996000</v>
-      </c>
-      <c r="C28">
-        <v>1396000</v>
       </c>
       <c r="D28">
         <v>1396000</v>
       </c>
       <c r="E28">
+        <v>1396000</v>
+      </c>
+      <c r="F28">
         <v>1900000</v>
-      </c>
-      <c r="F28">
-        <v>1396000</v>
       </c>
       <c r="G28">
         <v>1396000</v>
@@ -3712,7 +3898,7 @@
         <v>1396000</v>
       </c>
       <c r="P28">
-        <v>946000</v>
+        <v>1396000</v>
       </c>
       <c r="Q28">
         <v>946000</v>
@@ -3721,7 +3907,7 @@
         <v>946000</v>
       </c>
       <c r="S28">
-        <v>521000</v>
+        <v>946000</v>
       </c>
       <c r="T28">
         <v>521000</v>
@@ -3730,22 +3916,22 @@
         <v>521000</v>
       </c>
       <c r="V28">
+        <v>521000</v>
+      </c>
+      <c r="W28">
         <v>621000</v>
-      </c>
-      <c r="W28">
-        <v>521000</v>
       </c>
       <c r="X28">
         <v>521000</v>
       </c>
       <c r="Y28">
+        <v>521000</v>
+      </c>
+      <c r="Z28">
         <v>17421000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>16921000</v>
-      </c>
-      <c r="AA28">
-        <v>2900000</v>
       </c>
       <c r="AB28">
         <v>2900000</v>
@@ -3754,16 +3940,16 @@
         <v>2900000</v>
       </c>
       <c r="AD28">
+        <v>2900000</v>
+      </c>
+      <c r="AE28">
         <v>2905000</v>
-      </c>
-      <c r="AE28">
-        <v>2900000</v>
       </c>
       <c r="AF28">
         <v>2900000</v>
       </c>
       <c r="AG28">
-        <v>2905000</v>
+        <v>2900000</v>
       </c>
       <c r="AH28">
         <v>2905000</v>
@@ -3786,370 +3972,382 @@
       <c r="AN28">
         <v>2905000</v>
       </c>
+      <c r="AO28">
+        <v>2905000</v>
+      </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>10608000000</v>
+      </c>
+      <c r="C29">
         <v>10432000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>11557000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>12496000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>14600000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>14693000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>15109000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>14788000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>15129000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>14855000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>14660000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>14511000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>14121000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>14180000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>14009000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>13110000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>12764000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>12356000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>12225000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>12021000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>12071000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>12351000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>12356000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>12189000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>12410000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>12092000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>10208000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>9954000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>9634000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>9583000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>9461000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>9464000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>9384000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>9326000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>9434000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>9323000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>9214000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>9120000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>9133000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>9241000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>15159000000</v>
+      </c>
+      <c r="C30">
         <v>20390000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>18733000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>8237000000</v>
       </c>
-      <c r="E30">
-        <v>855000000</v>
-      </c>
       <c r="F30">
+        <v>3137000000</v>
+      </c>
+      <c r="G30">
         <v>-7099000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-7946000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-3590000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1081000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-2112000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-15000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>15056000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>11648000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>9520000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>10257000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>10067000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>9643000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>10300000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>9590000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>10693000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>8379000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>9762000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>9057000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>8329000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>8065000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>7731000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>3328000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>4085000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>6082000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>7063000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>5676000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>4038000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>2203000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>3214000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>3543000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>3541000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>705000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1065000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1796000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>3382000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>19307000000</v>
+      </c>
+      <c r="C31">
         <v>27071000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>22676000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>13650000000</v>
       </c>
-      <c r="E31">
-        <v>13479000000</v>
-      </c>
       <c r="F31">
+        <v>15761000000</v>
+      </c>
+      <c r="G31">
         <v>14174000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>14157000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>13535000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>19101000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>13725000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>15725000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>20789000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>14692000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>14470000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>14312000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>14168000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>13732000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>13849000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>13853000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>13749000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>14333000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>15100000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>13261000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>12324000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>12384000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>12622000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>11388000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>10760000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>10184000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>10308000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>10265000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>8711000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>7875000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>7172000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>8213000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>7712000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>7650000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>6154000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>6666000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>7785000000</v>
       </c>
     </row>
